--- a/검수/merged_student_data.xlsx
+++ b/검수/merged_student_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>학생 이름</t>
+          <t>학생명</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>윤지후</t>
+          <t>김하윤</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -590,85 +590,85 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.444444444444445</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>2.619047619047619</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>3.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z2" t="n">
         <v>3.428571428571428</v>
       </c>
-      <c r="V2" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3.142857142857143</v>
-      </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>1.625</v>
       </c>
       <c r="AB2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>신채원</t>
+          <t>이서준</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -676,80 +676,80 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="R3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.619047619047619</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
       <c r="S3" t="n">
         <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>4.428571428571429</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="V3" t="n">
-        <v>4.571428571428571</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="W3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="X3" t="n">
         <v>1.2</v>
       </c>
-      <c r="X3" t="n">
-        <v>5</v>
-      </c>
       <c r="Y3" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.857142857142857</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>1.375</v>
       </c>
       <c r="AB3" t="n">
         <v>3</v>
@@ -758,7 +758,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이민준</t>
+          <t>조하린</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -766,89 +766,89 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.888888888888889</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="R4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.619047619047619</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>3.428571428571428</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="W4" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="AA4" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AB4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>양지호</t>
+          <t>박시우</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -860,85 +860,85 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.777777777777778</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="K5" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.285714285714286</v>
+      </c>
+      <c r="V5" t="n">
         <v>3.857142857142857</v>
       </c>
-      <c r="L5" t="n">
-        <v>2.619047619047619</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="W5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="AB5" t="n">
         <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.571428571428571</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>정도윤</t>
+          <t>배수아</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -946,35 +946,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.888888888888889</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
@@ -986,40 +986,40 @@
         <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="V6" t="n">
         <v>4</v>
       </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3.285714285714286</v>
-      </c>
       <c r="W6" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="X6" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.285714285714286</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.25</v>
+        <v>1.625</v>
       </c>
       <c r="AB6" t="n">
         <v>3</v>
@@ -1028,7 +1028,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>오채원</t>
+          <t>정하늘</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1058,67 +1058,67 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.777777777777778</v>
       </c>
       <c r="K7" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="V7" t="n">
         <v>3.714285714285714</v>
       </c>
-      <c r="L7" t="n">
-        <v>2.619047619047619</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.142857142857143</v>
-      </c>
       <c r="W7" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="X7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y7" t="n">
         <v>4</v>
       </c>
-      <c r="Y7" t="n">
-        <v>3.2</v>
-      </c>
       <c r="Z7" t="n">
-        <v>3.285714285714286</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="AB7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>조수아</t>
+          <t>윤지후</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1126,35 +1126,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="K8" t="n">
-        <v>1.714285714285714</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="L8" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
@@ -1163,52 +1163,52 @@
         <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.666666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R8" t="n">
-        <v>3.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="X8" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>4</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>이우진</t>
+          <t>최다인</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1216,38 +1216,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.777777777777778</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.714285714285714</v>
-      </c>
       <c r="L9" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
@@ -1259,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R9" t="n">
         <v>3</v>
@@ -1268,37 +1268,37 @@
         <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>3.714285714285714</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>3.857142857142857</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
         <v>1.8</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Y9" t="n">
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.428571428571428</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.125</v>
+        <v>1.375</v>
       </c>
       <c r="AB9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>임유나</t>
+          <t>강예준</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1310,76 +1310,76 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>13</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>4.777777777777778</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="V10" t="n">
-        <v>4.571428571428571</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="W10" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="X10" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="AB10" t="n">
         <v>3</v>
@@ -1388,7 +1388,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>홍하은</t>
+          <t>한지아</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1400,31 +1400,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.555555555555555</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="L11" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
@@ -1433,52 +1433,52 @@
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.666666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="V11" t="n">
-        <v>3.428571428571428</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="W11" t="n">
         <v>2.5</v>
       </c>
       <c r="X11" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.571428571428572</v>
+        <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>4.25</v>
+        <v>1.25</v>
       </c>
       <c r="AB11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>김채린</t>
+          <t>서준호</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1499,40 +1499,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.222222222222222</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="L12" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="S12" t="n">
         <v>2</v>
@@ -1541,34 +1541,34 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.857142857142857</v>
       </c>
-      <c r="V12" t="n">
-        <v>2.714285714285714</v>
-      </c>
       <c r="W12" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Y12" t="n">
         <v>3.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.428571428571428</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.625</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이지호</t>
+          <t>노지민</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1576,89 +1576,89 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.111111111111111</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.428571428571428</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="AB13" t="n">
         <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.444444444444445</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.285714285714286</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.619047619047619</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.142857142857143</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2.142857142857143</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>양지아</t>
+          <t>임유나</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1670,76 +1670,76 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.111111111111111</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="K14" t="n">
-        <v>3.571428571428572</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="L14" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
         <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>4.333333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>3.428571428571428</v>
       </c>
       <c r="V14" t="n">
-        <v>3.571428571428572</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="W14" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.857142857142857</v>
+        <v>5</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="AB14" t="n">
         <v>3</v>
@@ -1748,7 +1748,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>장지호</t>
+          <t>오태양</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1760,34 +1760,34 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.222222222222222</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.714285714285714</v>
-      </c>
       <c r="L15" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
         <v>2</v>
@@ -1796,28 +1796,28 @@
         <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>3.142857142857143</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="V15" t="n">
-        <v>3.428571428571428</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="W15" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
         <v>4</v>
@@ -1826,10 +1826,10 @@
         <v>4</v>
       </c>
       <c r="Z15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.125</v>
+        <v>1.75</v>
       </c>
       <c r="AB15" t="n">
         <v>4</v>
@@ -1838,7 +1838,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>류지후</t>
+          <t>김소율</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1846,17 +1846,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1865,22 +1865,22 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.777777777777778</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="K16" t="n">
-        <v>1.857142857142857</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.619047619047619</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>2</v>
@@ -1889,46 +1889,46 @@
         <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.333333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="R16" t="n">
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
         <v>3.285714285714286</v>
       </c>
-      <c r="V16" t="n">
-        <v>3.142857142857143</v>
-      </c>
       <c r="W16" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>4</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="AA16" t="n">
-        <v>3.5</v>
+        <v>2.125</v>
       </c>
       <c r="AB16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>서지호</t>
+          <t>홍지호</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1940,85 +1940,85 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.111111111111111</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.714285714285714</v>
-      </c>
       <c r="L17" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>2.714285714285714</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="V17" t="n">
-        <v>2.428571428571428</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X17" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.375</v>
+        <v>1.375</v>
       </c>
       <c r="AB17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>박민준</t>
+          <t>장예림</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2026,41 +2026,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="K18" t="n">
-        <v>2.142857142857143</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="L18" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
@@ -2069,37 +2069,37 @@
         <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>3.714285714285714</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="V18" t="n">
-        <v>3.285714285714286</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="X18" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.714285714285714</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="AB18" t="n">
         <v>2</v>
@@ -2108,7 +2108,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>홍지호</t>
+          <t>류도현</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2120,37 +2120,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.333333333333333</v>
+        <v>4.555555555555555</v>
       </c>
       <c r="K19" t="n">
-        <v>2.285714285714286</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="L19" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
@@ -2159,46 +2159,46 @@
         <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>2.857142857142857</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="W19" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
         <v>3.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z19" t="n">
-        <v>3</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="AA19" t="n">
-        <v>4.125</v>
+        <v>1.25</v>
       </c>
       <c r="AB19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>조서윤</t>
+          <t>신아린</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2219,22 +2219,22 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="K20" t="n">
         <v>1.571428571428571</v>
       </c>
       <c r="L20" t="n">
-        <v>2.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
@@ -2246,49 +2246,49 @@
         <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="S20" t="n">
         <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>4.285714285714286</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="V20" t="n">
-        <v>4.285714285714286</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="W20" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Y20" t="n">
         <v>4</v>
       </c>
       <c r="Z20" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="n">
         <v>4</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>정채원</t>
+          <t>백승우</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2296,173 +2296,83 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>4.222222222222222</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
         <v>4</v>
       </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.619047619047619</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
       <c r="Q21" t="n">
-        <v>4.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="R21" t="n">
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="S21" t="n">
         <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="V21" t="n">
         <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>4</v>
+        <v>4.714285714285714</v>
       </c>
       <c r="AA21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB21" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>장예린</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.444444444444445</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.857142857142857</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.619047619047619</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3</v>
-      </c>
-      <c r="U22" t="n">
-        <v>4.285714285714286</v>
-      </c>
-      <c r="V22" t="n">
-        <v>4.285714285714286</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
